--- a/bin/data.xlsx
+++ b/bin/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codebase\UISpiceJet\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0020381-9D80-49F2-9F1D-09F314A040AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F001587-BE72-4193-9C7E-F408991A125B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE0F00E8-335A-451B-BA26-FE26354170E2}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/bin/data.xlsx
+++ b/bin/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codebase\UISpiceJet\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F001587-BE72-4193-9C7E-F408991A125B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B2FBA0-BDAA-49B5-80B0-3D14FB5C429E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE0F00E8-335A-451B-BA26-FE26354170E2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>Flight_From_Mexico_to_Canada</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>Flight_Test_Singleton</t>
+  </si>
+  <si>
+    <t>Flight_Test_2</t>
   </si>
 </sst>
 </file>
@@ -439,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBD0178-B434-469A-BE6C-893A45EF13F0}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,6 +619,52 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bin/data.xlsx
+++ b/bin/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codebase\UISpiceJet\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B2FBA0-BDAA-49B5-80B0-3D14FB5C429E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D11D9E-8614-452E-BA46-C898974E0D6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE0F00E8-335A-451B-BA26-FE26354170E2}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/bin/data.xlsx
+++ b/bin/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codebase\UISpiceJet\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D11D9E-8614-452E-BA46-C898974E0D6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9E09B5-2C99-4058-8D9C-E70A70A490E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE0F00E8-335A-451B-BA26-FE26354170E2}"/>
   </bookViews>
@@ -31,44 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
-  <si>
-    <t>Flight_From_Mexico_to_Canada</t>
-  </si>
-  <si>
-    <t>MEXICO</t>
-  </si>
-  <si>
-    <t>CANADA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>October 20 2020</t>
   </si>
   <si>
-    <t>TEST 2</t>
-  </si>
-  <si>
-    <t>BRASIL</t>
-  </si>
-  <si>
-    <t>PERU</t>
-  </si>
-  <si>
-    <t>November 20 2021</t>
-  </si>
-  <si>
-    <t>TEST 3</t>
-  </si>
-  <si>
-    <t>TEST 4</t>
-  </si>
-  <si>
-    <t>TEST 5</t>
-  </si>
-  <si>
-    <t>TEST 6</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -78,31 +45,71 @@
     <t>from</t>
   </si>
   <si>
-    <t>arival_DATE</t>
-  </si>
-  <si>
     <t>children</t>
   </si>
   <si>
-    <t>departure_DATE</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
-    <t>Flight_Test_Singleton</t>
-  </si>
-  <si>
-    <t>Flight_Test_2</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>Test_1</t>
+  </si>
+  <si>
+    <t>One way</t>
+  </si>
+  <si>
+    <t>MONTERREY</t>
+  </si>
+  <si>
+    <t>CHIHUAHUA</t>
+  </si>
+  <si>
+    <t>departure</t>
+  </si>
+  <si>
+    <t>arrival</t>
+  </si>
+  <si>
+    <t>Test_2</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Test_3</t>
+  </si>
+  <si>
+    <t>Budapest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -129,8 +136,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,227 +461,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBD0178-B434-469A-BE6C-893A45EF13F0}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>